--- a/cambios_ultimos.xlsx
+++ b/cambios_ultimos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>fecha</t>
+  </si>
+  <si>
+    <t>Verificar subida de archivo</t>
+  </si>
+  <si>
+    <t>Pantalla de resume de temas y facilitadores por modulo</t>
+  </si>
+  <si>
+    <t>Agregar fecha real innicio y fin en modulos</t>
+  </si>
+  <si>
+    <t>Arreglar pantalla de opiniones</t>
+  </si>
+  <si>
+    <t>Arreglar pantalla de calificacion</t>
   </si>
 </sst>
 </file>
@@ -104,8 +119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
     <tableColumn id="4" name="fecha"/>
@@ -379,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +462,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/cambios_ultimos.xlsx
+++ b/cambios_ultimos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>Arreglar pantalla de calificacion</t>
+  </si>
+  <si>
+    <t>Agregar Sexo a los participantes</t>
+  </si>
+  <si>
+    <t>Alinear los nombres en niscripcion</t>
+  </si>
+  <si>
+    <t>Mostrar cooperativa en la inscripcion de personas</t>
+  </si>
+  <si>
+    <t>Agregar boton de atrás en la inscripcion</t>
+  </si>
+  <si>
+    <t>Arreglar el control de ofertas</t>
+  </si>
+  <si>
+    <t>Agregar promedio en la evaluacion del modulo</t>
+  </si>
+  <si>
+    <t>Agregar mantenimiento de temas por modulo</t>
   </si>
 </sst>
 </file>
@@ -119,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D16" totalsRowShown="0">
+  <autoFilter ref="A1:D16"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
     <tableColumn id="4" name="fecha"/>
@@ -394,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +523,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/cambios_ultimos.xlsx
+++ b/cambios_ultimos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Costo real = resultado financiero  usar formato de liquidación</t>
   </si>
   <si>
-    <t>fecha</t>
-  </si>
-  <si>
     <t>Verificar subida de archivo</t>
   </si>
   <si>
@@ -84,6 +81,15 @@
   </si>
   <si>
     <t>Agregar mantenimiento de temas por modulo</t>
+  </si>
+  <si>
+    <t>Agregar reporte de participantes por capacitacion</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Nº</t>
   </si>
 </sst>
 </file>
@@ -121,12 +127,16 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -140,11 +150,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="4" name="fecha"/>
+    <tableColumn id="4" name="Nº" dataDxfId="0"/>
     <tableColumn id="2" name="cambio"/>
     <tableColumn id="3" name="terminado"/>
   </tableColumns>
@@ -415,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -446,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>41920</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -460,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>41920</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -474,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>41920</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -484,99 +494,146 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/cambios_ultimos.xlsx
+++ b/cambios_ultimos.xlsx
@@ -83,13 +83,13 @@
     <t>Agregar mantenimiento de temas por modulo</t>
   </si>
   <si>
-    <t>Agregar reporte de participantes por capacitacion</t>
-  </si>
-  <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Agregar reporte de participantes por capacitacion/ ruta:  http://localhost:9999/asesores/index.php/pl_capacitaciones/index/10</t>
   </si>
 </sst>
 </file>
@@ -428,13 +428,13 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
